--- a/docs/Stories.xlsx
+++ b/docs/Stories.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup\SCIP\Misc\dwaitanidhi\DwaitaNidhi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D74131-8B99-44C9-A5BC-2CC7DA52D360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82CC05D-4E6B-438A-98DB-AFACBA59A05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{809075A0-F4CC-4C71-ACE7-6CBA45FBEEBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{809075A0-F4CC-4C71-ACE7-6CBA45FBEEBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Phase 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Phase 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Users</t>
   </si>
@@ -162,6 +163,12 @@
   </si>
   <si>
     <t>I would like to see an option to go to settings page</t>
+  </si>
+  <si>
+    <t>Freeze scroll at commentary hyperlink</t>
+  </si>
+  <si>
+    <t>Hyperlinks to original resource from commentary section</t>
   </si>
 </sst>
 </file>
@@ -542,9 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6295F217-956E-45E4-B2C2-1FA8AD5B4703}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -774,4 +782,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C17119B-B9A4-491C-AF2D-222ED9F12015}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>